--- a/stats/bryum/month_temp_stats_X1.xlsx
+++ b/stats/bryum/month_temp_stats_X1.xlsx
@@ -570,13 +570,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12923076923077</v>
+        <v>-4.82559523809525</v>
       </c>
       <c r="D13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.7</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="14">
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.64694485842026</v>
+        <v>-6.64583333333334</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>

--- a/stats/bryum/month_temp_stats_X1.xlsx
+++ b/stats/bryum/month_temp_stats_X1.xlsx
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.64583333333334</v>
+        <v>-6.64694485842026</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>

--- a/stats/bryum/month_temp_stats_X1.xlsx
+++ b/stats/bryum/month_temp_stats_X1.xlsx
@@ -1,40 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/bryum/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_60C6943C80CF663EDB520776CEAE4490E3F4F7DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74B032E-8233-0749-A0A6-8D870A2A7D80}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Year</t>
+    <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Month</t>
+    <t>Month</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_temp</t>
+    <t>mean_temp</t>
   </si>
   <si>
-    <t xml:space="preserve">max_temp</t>
+    <t>max_temp</t>
   </si>
   <si>
-    <t xml:space="preserve">min_temp</t>
+    <t>min_temp</t>
+  </si>
+  <si>
+    <t>Bryum_X1</t>
+  </si>
+  <si>
+    <t>Bryum_X2</t>
+  </si>
+  <si>
+    <t>Bryum_X4</t>
+  </si>
+  <si>
+    <t>Austroplaca_X3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,13 +82,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,304 +386,796 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="14" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" s="2">
         <v>-13.8184722222222</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" s="2">
         <v>-8.9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" s="2">
         <v>-18.2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="F3" s="2">
+        <v>-12.749444444444499</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-13.4516666666667</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-6.4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-10.442916666666701</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-16.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2019</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B4">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" s="2">
         <v>-0.263575268817208</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" s="2">
         <v>13.3</v>
       </c>
-      <c r="E3" t="n">
-        <v>-9.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E4" s="2">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7.97043010752648E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-7.7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.83629032258064395</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-7.9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.94556451612903003</v>
+      </c>
+      <c r="M4" s="2">
+        <v>12</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.65503355704697</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C5" s="2">
+        <v>1.6550335570469701</v>
+      </c>
+      <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" s="2">
         <v>-8.4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="F5" s="2">
+        <v>0.82979865771812</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.59758389261744804</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.24026845637583299</v>
+      </c>
+      <c r="M5" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>-6.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" s="2">
         <v>-3.17040229885058</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" s="2">
         <v>6.8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" s="2">
         <v>-7.2</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="F6" s="2">
+        <v>-3.4747126436781599</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-6.9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-3.7994252873563301</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-7.7</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-3.9314655172413899</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2020</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" s="2">
         <v>-14.7533333333333</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" s="2">
         <v>-9.4</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" s="2">
         <v>-18.7</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="F7" s="2">
+        <v>-13.969722222222201</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-5.7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-14.525555555555499</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-8.4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-13.518611111111101</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-4.2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>-18.399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2020</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B8">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
-        <v>-2.20779569892476</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-10.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C8" s="2">
+        <v>-2.2077956989247598</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1.27849462365592</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-9.4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-2.81021505376347</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-0.19475806451611599</v>
+      </c>
+      <c r="M8" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" s="2">
         <v>1.68252688172043</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" s="2">
         <v>10.5</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" s="2">
         <v>-7.4</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="F9" s="2">
+        <v>0.48010752688171598</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-6.7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.524059139784946</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-7.4</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.39731182795698899</v>
+      </c>
+      <c r="M9" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-7.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" s="2">
         <v>-7.45580357142856</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" s="2">
         <v>5.3</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" s="2">
         <v>-16.2</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="F10" s="2">
+        <v>-7.2363095238095303</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-13.4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-7.7793154761904804</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>-15.4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-7.4775297619047603</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-15.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2021</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" s="2">
         <v>-16.1904166666667</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" s="2">
         <v>-12.4</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" s="2">
         <v>-19.7</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="F11" s="2">
+        <v>-15.02125</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-10.7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-15.797222222222199</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-11.7</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="L11" s="2">
+        <v>-14.002222222222199</v>
+      </c>
+      <c r="M11" s="2">
+        <v>-8.9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>-19.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.98172043010753</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C12" s="2">
+        <v>-0.98172043010752996</v>
+      </c>
+      <c r="D12" s="2">
         <v>12</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" s="2">
         <v>-12.4</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="F12" s="2">
+        <v>-1.2087365591397801</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-11.2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-1.1357526881720601</v>
+      </c>
+      <c r="J12" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-11.7</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-0.56209677419355297</v>
+      </c>
+      <c r="M12" s="2">
+        <v>11</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" s="2">
         <v>1.3494623655914</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" s="2">
         <v>-7.7</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="F13" s="2">
+        <v>1.3741935483871</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-5.2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.68091397849462298</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K13" s="2">
+        <v>-7.4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>-8.66935483870961E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" s="2">
         <v>-4.82559523809525</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" s="2">
         <v>8</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" s="2">
         <v>-13.7</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="F14" s="2">
+        <v>-4.4687500000000204</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-10.9</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-5.4994047619047803</v>
+      </c>
+      <c r="J14" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-16.7</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-5.23035714285714</v>
+      </c>
+      <c r="M14" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-12.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2022</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C14" t="n">
-        <v>-15.4980555555556</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C15" s="2">
+        <v>-15.498055555555601</v>
+      </c>
+      <c r="D15" s="2">
         <v>-3.7</v>
       </c>
-      <c r="E14" t="n">
-        <v>-18.9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="E15" s="2">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-13.890833333333299</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-15.598472222222201</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-5.4</v>
+      </c>
+      <c r="K15" s="2">
+        <v>-19.2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>-14.022916666666699</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>-19.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2022</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.32647849462365</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C16" s="2">
+        <v>0.32647849462364997</v>
+      </c>
+      <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E16" s="2">
         <v>-7.9</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="F16" s="2">
+        <v>0.77755376344085503</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-6.4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-0.12836021505376199</v>
+      </c>
+      <c r="J16" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K16" s="2">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.201344086021502</v>
+      </c>
+      <c r="M16" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="N16" s="2">
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2023</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.891801075268818</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C17" s="2">
+        <v>0.89180107526881802</v>
+      </c>
+      <c r="D17" s="2">
         <v>13</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E17" s="2">
         <v>-8.9</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="F17" s="2">
+        <v>1.3672043010752699</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-7.2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.1071236559139801</v>
+      </c>
+      <c r="J17" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-8.9</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-0.38333333333333303</v>
+      </c>
+      <c r="M17" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="N17" s="2">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2023</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>-6.64694485842026</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C18" s="2">
+        <v>-6.6469448584202597</v>
+      </c>
+      <c r="D18" s="2">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E18" s="2">
         <v>-21.7</v>
       </c>
+      <c r="F18" s="2">
+        <v>-6.4298062593144403</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-15.4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-7.0460506706408497</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="K18" s="2">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="L18" s="2">
+        <v>-7.35543964232488</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-15.9</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>